--- a/Data/data_IHPC_cropped_FFT.xlsx
+++ b/Data/data_IHPC_cropped_FFT.xlsx
@@ -410,31 +410,31 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>16132</v>
+        <v>15760</v>
       </c>
       <c r="C2" t="n">
-        <v>882.5828220844269</v>
+        <v>873.9554054737091</v>
       </c>
       <c r="D2" t="n">
-        <v>72.72882080078125</v>
+        <v>75.08179473876953</v>
       </c>
       <c r="E2" t="n">
-        <v>420.2461547851562</v>
+        <v>418.406982421875</v>
       </c>
       <c r="F2" t="n">
-        <v>246.4874877929688</v>
+        <v>246.7443885803223</v>
       </c>
       <c r="G2" t="n">
-        <v>109240</v>
+        <v>104715</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8849356793363793</v>
+        <v>0.8482793817439487</v>
       </c>
       <c r="I2" t="n">
-        <v>14204</v>
+        <v>18729</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1150643206636208</v>
+        <v>0.1517206182560513</v>
       </c>
     </row>
     <row r="3">
@@ -442,19 +442,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>21256</v>
+        <v>21239</v>
       </c>
       <c r="C3" t="n">
-        <v>1186.545367836952</v>
+        <v>1093.207274317741</v>
       </c>
       <c r="D3" t="n">
-        <v>68.96685791015625</v>
+        <v>64.92035675048828</v>
       </c>
       <c r="E3" t="n">
-        <v>470.2434997558594</v>
+        <v>519.1057739257812</v>
       </c>
       <c r="F3" t="n">
-        <v>269.6051788330078</v>
+        <v>292.0130653381348</v>
       </c>
     </row>
     <row r="4">
@@ -462,19 +462,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>12927</v>
+        <v>11330</v>
       </c>
       <c r="C4" t="n">
-        <v>911.5777697563171</v>
+        <v>655.2863587141037</v>
       </c>
       <c r="D4" t="n">
-        <v>123.8206100463867</v>
+        <v>108.8286056518555</v>
       </c>
       <c r="E4" t="n">
-        <v>196.9495544433594</v>
+        <v>189.6685028076172</v>
       </c>
       <c r="F4" t="n">
-        <v>160.385082244873</v>
+        <v>149.2485542297363</v>
       </c>
     </row>
     <row r="5">
@@ -482,19 +482,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>32631</v>
+        <v>32126</v>
       </c>
       <c r="C5" t="n">
-        <v>1286.285482287407</v>
+        <v>1239.7585709095</v>
       </c>
       <c r="D5" t="n">
-        <v>114.7370452880859</v>
+        <v>111.3908004760742</v>
       </c>
       <c r="E5" t="n">
-        <v>398.3509826660156</v>
+        <v>400.76025390625</v>
       </c>
       <c r="F5" t="n">
-        <v>256.5440139770508</v>
+        <v>256.0755271911621</v>
       </c>
     </row>
     <row r="6">
@@ -502,19 +502,19 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>11736</v>
+        <v>10868</v>
       </c>
       <c r="C6" t="n">
-        <v>770.2468165159225</v>
+        <v>769.2173789739609</v>
       </c>
       <c r="D6" t="n">
-        <v>56.44655609130859</v>
+        <v>51.43714141845703</v>
       </c>
       <c r="E6" t="n">
-        <v>334.8215637207031</v>
+        <v>343.5044860839844</v>
       </c>
       <c r="F6" t="n">
-        <v>195.6340599060059</v>
+        <v>197.4708137512207</v>
       </c>
     </row>
     <row r="7">
@@ -522,19 +522,19 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>5757</v>
+        <v>4872</v>
       </c>
       <c r="C7" t="n">
-        <v>549.8965303897858</v>
+        <v>497.269113779068</v>
       </c>
       <c r="D7" t="n">
-        <v>35.66122817993164</v>
+        <v>31.45432090759277</v>
       </c>
       <c r="E7" t="n">
-        <v>210.9264068603516</v>
+        <v>206.8210601806641</v>
       </c>
       <c r="F7" t="n">
-        <v>123.2938175201416</v>
+        <v>119.1376905441284</v>
       </c>
     </row>
     <row r="8">
@@ -542,19 +542,19 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>4553</v>
+        <v>4369</v>
       </c>
       <c r="C8" t="n">
-        <v>388.5929267406464</v>
+        <v>394.1076455116272</v>
       </c>
       <c r="D8" t="n">
-        <v>56.62479019165039</v>
+        <v>55.16712951660156</v>
       </c>
       <c r="E8" t="n">
-        <v>149.1998443603516</v>
+        <v>153.1915893554688</v>
       </c>
       <c r="F8" t="n">
-        <v>102.912317276001</v>
+        <v>104.1793594360352</v>
       </c>
     </row>
   </sheetData>
